--- a/Lander_subsystems_DB23.xlsx
+++ b/Lander_subsystems_DB23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conall De Paor\Desktop\Supaero\Research Project\Sizing-Tool\ORLA_Lander_Mission_Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EA23CD-F2EB-4907-B0FA-9BE218626D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156889D0-BC0B-4E36-A10D-E8C121EC182C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{980FDF1D-6D6A-4B67-B4CD-9FBE1C3FED17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{980FDF1D-6D6A-4B67-B4CD-9FBE1C3FED17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
-  <si>
-    <t>Lander Subsystem database</t>
-  </si>
-  <si>
-    <t>0503-CE&amp;R-3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>9508-HLR-1</t>
   </si>
@@ -56,13 +50,7 @@
     <t>Apollo J-series</t>
   </si>
   <si>
-    <t>0503-CE&amp;R-6</t>
-  </si>
-  <si>
     <t>0503-CE&amp;R-8</t>
-  </si>
-  <si>
-    <t>0507-ESAS-A</t>
   </si>
   <si>
     <t>0507-ESAS-D</t>
@@ -89,25 +77,10 @@
     <t>Power</t>
   </si>
   <si>
-    <t>Environment</t>
-  </si>
-  <si>
     <t>Avionics</t>
   </si>
   <si>
-    <t>Protection</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Growth</t>
-  </si>
-  <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Dry mass</t>
   </si>
   <si>
     <t>Subsystem sizing</t>
@@ -399,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -413,21 +386,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,6 +450,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,949 +477,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.0347550306211727E-2"/>
-          <c:y val="3.2407407407407406E-2"/>
-          <c:w val="0.56597156605424326"/>
-          <c:h val="0.94328594342373873"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-756B-4093-B7CF-70ABD03D3476}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-756B-4093-B7CF-70ABD03D3476}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-756B-4093-B7CF-70ABD03D3476}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-756B-4093-B7CF-70ABD03D3476}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-756B-4093-B7CF-70ABD03D3476}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-756B-4093-B7CF-70ABD03D3476}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-756B-4093-B7CF-70ABD03D3476}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-756B-4093-B7CF-70ABD03D3476}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-756B-4093-B7CF-70ABD03D3476}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Sheet7!$B$4:$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Structure</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Propulsion</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Power</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Environment</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Avionics</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Protection</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Control</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Growth</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet7!$N$4:$N$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.37014532844659487</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34123750733279873</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.7934384233271795E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.4395391683574716E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.147303593116229E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6121321715668599E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.869303065692907E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16093587142352273</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.11237345876679818</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-756B-4093-B7CF-70ABD03D3476}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.66686286089238855"/>
-          <c:y val="5.4397054534849811E-2"/>
-          <c:w val="0.26905183727034115"/>
-          <c:h val="0.83449183435403906"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Thermal</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13561020630558407"/>
-          <c:y val="0.19486111111111112"/>
-          <c:w val="0.79927589770017327"/>
-          <c:h val="0.62271617089530473"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet7!$B$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Thermal Protection</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.6122557451952446E-2"/>
-                  <c:y val="-0.20821157771945173"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>([1]Sheet7!$C$39:$D$39,[1]Sheet7!$H$39:$M$39)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1200.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3485.29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>353.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7542</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7412</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5970</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5912</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>([1]Sheet7!$C$37:$D$37,[1]Sheet7!$H$37:$M$37)</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>113.5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>459.04</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>1072</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1066</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1049</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>1046</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B7C-4C3F-83BA-B7248BB4AEDB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="696381736"/>
-        <c:axId val="696375832"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="696381736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>dry mass</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="696375832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="696375832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Thermal Protection</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="696381736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1816,7 +840,7 @@
             <c:numRef>
               <c:f>[1]Sheet7!$N$33:$N$38</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.2756065027505068</c:v>
@@ -1949,7 +973,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2136,28 +1160,28 @@
                 <c:pt idx="2">
                   <c:v>1681</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="#,##0">
+                <c:pt idx="3">
                   <c:v>1770</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#,##0">
+                <c:pt idx="4">
                   <c:v>2822</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#,##0">
+                <c:pt idx="5">
                   <c:v>1186.3399999999999</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="#,##0">
+                <c:pt idx="6">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="#,##0">
+                <c:pt idx="7">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="#,##0">
+                <c:pt idx="8">
                   <c:v>1985</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
+                <c:pt idx="9">
                   <c:v>1877</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
+                <c:pt idx="10">
                   <c:v>1860</c:v>
                 </c:pt>
               </c:numCache>
@@ -2467,7 +1491,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2676,28 +1700,28 @@
                 <c:pt idx="2">
                   <c:v>4258</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="#,##0">
+                <c:pt idx="3">
                   <c:v>4969</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#,##0">
+                <c:pt idx="4">
                   <c:v>1749</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>918.21</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="#,##0">
+                <c:pt idx="6">
                   <c:v>191.44</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="#,##0">
+                <c:pt idx="7">
                   <c:v>2425</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="#,##0">
+                <c:pt idx="8">
                   <c:v>2347</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
+                <c:pt idx="9">
                   <c:v>1125</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="#,##0">
+                <c:pt idx="10">
                   <c:v>1095</c:v>
                 </c:pt>
               </c:numCache>
@@ -3022,7 +2046,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3545,7 +2569,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3765,7 +2789,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0" formatCode="#,##0">
+                <c:pt idx="0">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3783,7 +2807,7 @@
                 <c:pt idx="5">
                   <c:v>258.7</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="#,##0">
+                <c:pt idx="6">
                   <c:v>76.080000000000013</c:v>
                 </c:pt>
                 <c:pt idx="7">
@@ -3792,7 +2816,7 @@
                 <c:pt idx="8">
                   <c:v>594</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="#,##0">
+                <c:pt idx="9">
                   <c:v>594</c:v>
                 </c:pt>
                 <c:pt idx="10">
@@ -4012,7 +3036,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4105,7 +3129,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4324,39 +3348,39 @@
             <c:numRef>
               <c:f>[1]Sheet7!$C$37:$M$37</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>113.5</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
+                <c:pt idx="2">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
+                <c:pt idx="3">
                   <c:v>420</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="General">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="General">
+                <c:pt idx="5">
                   <c:v>459.04</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="7">
                   <c:v>1072</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1066</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="9">
                   <c:v>1049</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
+                <c:pt idx="10">
                   <c:v>1046</c:v>
                 </c:pt>
               </c:numCache>
@@ -4666,7 +3690,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4866,25 +3890,25 @@
                 <c:pt idx="1">
                   <c:v>252.5</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="#,##0">
+                <c:pt idx="2">
                   <c:v>1749</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>918.21</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#,##0">
+                <c:pt idx="4">
                   <c:v>191.44</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#,##0">
+                <c:pt idx="5">
                   <c:v>2425</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="#,##0">
+                <c:pt idx="6">
                   <c:v>2347</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="#,##0">
+                <c:pt idx="7">
                   <c:v>1125</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="#,##0">
+                <c:pt idx="8">
                   <c:v>1095</c:v>
                 </c:pt>
               </c:numCache>
@@ -5209,7 +4233,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5387,25 +4411,25 @@
                 <c:pt idx="1">
                   <c:v>532.9</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="#,##0">
+                <c:pt idx="2">
                   <c:v>2822</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="#,##0">
+                <c:pt idx="3">
                   <c:v>1186.3399999999999</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#,##0">
+                <c:pt idx="4">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="#,##0">
+                <c:pt idx="5">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="#,##0">
+                <c:pt idx="6">
                   <c:v>1985</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="#,##0">
+                <c:pt idx="7">
                   <c:v>1877</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="#,##0">
+                <c:pt idx="8">
                   <c:v>1860</c:v>
                 </c:pt>
               </c:numCache>
@@ -5715,47 +4739,550 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Thermal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13561020630558407"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.79927589770017327"/>
+          <c:h val="0.62271617089530473"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet7!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thermal Protection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.6122557451952446E-2"/>
+                  <c:y val="-0.20821157771945173"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>([1]Sheet7!$C$39:$D$39,[1]Sheet7!$H$39:$M$39)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3485.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>353.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5970</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>([1]Sheet7!$C$37:$D$37,[1]Sheet7!$H$37:$M$37)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B7C-4C3F-83BA-B7248BB4AEDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="696381736"/>
+        <c:axId val="696375832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="696381736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>dry mass</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696375832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="696375832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Thermal Protection</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696381736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6634,7 +6161,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7150,8 +6677,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7178,8 +6705,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7208,7 +6735,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7259,13 +6786,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7276,25 +6796,18 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7329,7 +6842,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7650,6 +7163,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7669,7 +7193,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8185,7 +7709,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8701,7 +8225,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9217,7 +8741,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9733,7 +9257,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10249,7 +9773,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10765,543 +10289,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>125187</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>459840</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>605517</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97811</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11">
+        <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCBB256-17A4-4F42-B3DE-6D9A2BBF3F3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83CBD7E4-9A62-46ED-9BA7-D716904A0955}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11323,23 +10331,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>459840</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>606237</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>97811</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>110938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
+        <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83CBD7E4-9A62-46ED-9BA7-D716904A0955}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73A60C0-B931-4249-93AB-9B0624DAB900}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11362,22 +10370,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>606237</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>34738</xdr:rowOff>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>112939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>110938</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>189139</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
+        <xdr:cNvPr id="15" name="Chart 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A73A60C0-B931-4249-93AB-9B0624DAB900}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD80CFB-DAC5-499E-AB64-5F196DC88FAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11400,22 +10408,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>598715</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>112939</xdr:rowOff>
+      <xdr:colOff>608981</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>189139</xdr:rowOff>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>119495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14">
+        <xdr:cNvPr id="16" name="Chart 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD80CFB-DAC5-499E-AB64-5F196DC88FAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCE8C03-021C-407E-ACA6-3FE59D5E46AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11438,22 +10446,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>608981</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>43295</xdr:rowOff>
+      <xdr:colOff>591293</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>84115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>119495</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>160315</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15">
+        <xdr:cNvPr id="17" name="Chart 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCE8C03-021C-407E-ACA6-3FE59D5E46AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF7D551-4EA8-4BBB-9C9A-716656E6DC84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11476,22 +10484,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>591293</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>84115</xdr:rowOff>
+      <xdr:colOff>613063</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>109970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>160315</xdr:rowOff>
+      <xdr:colOff>357186</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>186170</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16">
+        <xdr:cNvPr id="18" name="Chart 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF7D551-4EA8-4BBB-9C9A-716656E6DC84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A7E45B-7DCF-4475-999F-362B399FAD87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11513,23 +10521,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>632114</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>109970</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>732967</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>186170</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>121660</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17">
+        <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A7E45B-7DCF-4475-999F-362B399FAD87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6DCCBB-4190-49DC-8069-A7BA75C9AE85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11552,22 +10560,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>45460</xdr:rowOff>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>121660</xdr:rowOff>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18">
+        <xdr:cNvPr id="20" name="Chart 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6DCCBB-4190-49DC-8069-A7BA75C9AE85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C064BC-52EE-4B28-BDDF-D045244AB78F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11590,53 +10598,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C064BC-52EE-4B28-BDDF-D045244AB78F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11657,7 +10627,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12585,292 +11555,6 @@
 </a:themeOverride>
 </file>
 
-<file path=xl/theme/themeOverride10.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="44546A"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="E7E6E6"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4472C4"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="ED7D31"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="A5A5A5"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="FFC000"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="5B9BD5"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="70AD47"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0563C1"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="954F72"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック Light"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线 Light"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="游ゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="等线"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-      <a:font script="Armn" typeface="Arial"/>
-      <a:font script="Bugi" typeface="Leelawadee UI"/>
-      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-      <a:font script="Java" typeface="Javanese Text"/>
-      <a:font script="Lisu" typeface="Segoe UI"/>
-      <a:font script="Mymr" typeface="Myanmar Text"/>
-      <a:font script="Nkoo" typeface="Ebrima"/>
-      <a:font script="Olck" typeface="Nirmala UI"/>
-      <a:font script="Osma" typeface="Ebrima"/>
-      <a:font script="Phag" typeface="Phagspa"/>
-      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-      <a:font script="Syre" typeface="Estrangelo Edessa"/>
-      <a:font script="Sora" typeface="Nirmala UI"/>
-      <a:font script="Tale" typeface="Microsoft Tai Le"/>
-      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-      <a:font script="Tfng" typeface="Ebrima"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="110000"/>
-              <a:satMod val="105000"/>
-              <a:tint val="67000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="103000"/>
-              <a:tint val="73000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="105000"/>
-              <a:satMod val="109000"/>
-              <a:tint val="81000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:satMod val="103000"/>
-              <a:lumMod val="102000"/>
-              <a:tint val="94000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:satMod val="110000"/>
-              <a:lumMod val="100000"/>
-              <a:shade val="100000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="99000"/>
-              <a:satMod val="120000"/>
-              <a:shade val="78000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-        <a:miter lim="800000"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst/>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="63000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:tint val="95000"/>
-          <a:satMod val="170000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="93000"/>
-              <a:satMod val="150000"/>
-              <a:shade val="98000"/>
-              <a:lumMod val="102000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="50000">
-            <a:schemeClr val="phClr">
-              <a:tint val="98000"/>
-              <a:satMod val="130000"/>
-              <a:shade val="90000"/>
-              <a:lumMod val="103000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="63000"/>
-              <a:satMod val="120000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="Office">
@@ -15161,13 +13845,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B7FB49-016A-4FAD-9C59-A85955BB90FC}">
-  <dimension ref="A1:AE135"/>
+  <dimension ref="A1:AE123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -15204,9 +13891,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -15240,42 +13925,18 @@
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -15296,50 +13957,20 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3757</v>
-      </c>
-      <c r="D4" s="2">
-        <f>404.8+28.8+99.3</f>
-        <v>532.9</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1770</v>
-      </c>
-      <c r="F4" s="2">
-        <v>460</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2441</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2822</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1113</v>
-      </c>
-      <c r="J4" s="3">
-        <v>2015</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1985</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1877</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1860</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" ref="N4:N12" si="0">SUM(C4:M4)/SUM($C$13:$M$13)</f>
-        <v>0.37014532844659487</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -15359,49 +13990,20 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1219</v>
-      </c>
-      <c r="D5" s="2">
-        <v>252.5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4969</v>
-      </c>
-      <c r="F5" s="2">
-        <v>495</v>
-      </c>
-      <c r="G5" s="3">
-        <v>983</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1749</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2362</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2425</v>
-      </c>
-      <c r="K5" s="3">
-        <v>2347</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1125</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1095</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.34123750733279873</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -15421,49 +14023,20 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>400</v>
-      </c>
-      <c r="D6" s="2">
-        <v>125.7</v>
-      </c>
-      <c r="E6" s="2">
-        <v>385</v>
-      </c>
-      <c r="F6" s="2">
-        <v>366</v>
-      </c>
-      <c r="G6" s="2">
-        <v>741</v>
-      </c>
-      <c r="H6" s="2">
-        <v>204</v>
-      </c>
-      <c r="I6" s="2">
-        <v>468</v>
-      </c>
-      <c r="J6" s="2">
-        <v>553</v>
-      </c>
-      <c r="K6" s="2">
-        <v>553</v>
-      </c>
-      <c r="L6" s="2">
-        <v>553</v>
-      </c>
-      <c r="M6" s="2">
-        <v>553</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="0"/>
-        <v>8.7934384233271795E-2</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -15483,47 +14056,20 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>194</v>
-      </c>
-      <c r="G7" s="2">
-        <v>564</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>281</v>
-      </c>
-      <c r="J7" s="2">
-        <v>777</v>
-      </c>
-      <c r="K7" s="3">
-        <v>777</v>
-      </c>
-      <c r="L7" s="2">
-        <v>777</v>
-      </c>
-      <c r="M7" s="2">
-        <v>777</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="0"/>
-        <v>7.4395391683574716E-2</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -15541,51 +14087,22 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2">
-        <v>120.1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>307</v>
-      </c>
-      <c r="F8" s="3">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2">
-        <v>65</v>
-      </c>
-      <c r="H8" s="2">
-        <v>818</v>
-      </c>
-      <c r="I8" s="2">
-        <v>69</v>
-      </c>
-      <c r="J8" s="2">
-        <v>594</v>
-      </c>
-      <c r="K8" s="2">
-        <v>594</v>
-      </c>
-      <c r="L8" s="3">
-        <v>594</v>
-      </c>
-      <c r="M8" s="2">
-        <v>594</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" si="0"/>
-        <v>7.147303593116229E-2</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -15603,51 +14120,22 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>113.5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>420</v>
-      </c>
-      <c r="F9" s="2">
-        <v>210</v>
-      </c>
-      <c r="G9" s="3">
-        <v>57</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>88</v>
-      </c>
-      <c r="J9" s="2">
-        <v>295</v>
-      </c>
-      <c r="K9" s="3">
-        <v>289</v>
-      </c>
-      <c r="L9" s="2">
-        <v>272</v>
-      </c>
-      <c r="M9" s="2">
-        <v>269</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="0"/>
-        <v>3.6121321715668599E-2</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -15656,58 +14144,33 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
+      <c r="X9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="31"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>685</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>265</v>
-      </c>
-      <c r="I10" s="2">
-        <v>92</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="0"/>
-        <v>1.869303065692907E-2</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -15716,60 +14179,47 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
+      <c r="X10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1878</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>703</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1023</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1508</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1483</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1194</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1182</v>
-      </c>
-      <c r="N11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.16093587142352273</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -15778,60 +14228,49 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
+      <c r="X11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" ref="Y11:Y21" si="0">SUM(Z11:AE11)</f>
+        <v>2027</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>460</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>495</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>366</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>29</v>
+      </c>
+      <c r="AD11" s="16">
+        <f>210+194</f>
+        <v>404</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>273</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2">
-        <v>431</v>
-      </c>
-      <c r="D12" s="2">
-        <v>56</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1469</v>
-      </c>
-      <c r="F12" s="3">
-        <v>273</v>
-      </c>
-      <c r="G12" s="2">
-        <v>109</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>640</v>
-      </c>
-      <c r="J12" s="2">
-        <v>883</v>
-      </c>
-      <c r="K12" s="3">
-        <v>867</v>
-      </c>
-      <c r="L12" s="2">
-        <v>772</v>
-      </c>
-      <c r="M12" s="2">
-        <v>764</v>
-      </c>
-      <c r="N12" s="5">
-        <f t="shared" si="0"/>
-        <v>0.11237345876679818</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -15840,64 +14279,47 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
+      <c r="X12" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="19">
+        <f t="shared" si="0"/>
+        <v>1200.7</v>
+      </c>
+      <c r="Z12" s="20">
+        <f>404.8+28.8+99.3</f>
+        <v>532.9</v>
+      </c>
+      <c r="AA12" s="20">
+        <v>252.5</v>
+      </c>
+      <c r="AB12" s="20">
+        <v>125.7</v>
+      </c>
+      <c r="AC12" s="20">
+        <v>120.1</v>
+      </c>
+      <c r="AD12" s="21">
+        <v>113.5</v>
+      </c>
+      <c r="AE12" s="22">
+        <v>56</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" ref="C13:M13" si="1">SUM(C4:C10)</f>
-        <v>6261</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="1"/>
-        <v>1144.7</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="1"/>
-        <v>7851</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="1"/>
-        <v>1754</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="1"/>
-        <v>4851</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="1"/>
-        <v>5858</v>
-      </c>
-      <c r="I13" s="7">
-        <f t="shared" si="1"/>
-        <v>4473</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="1"/>
-        <v>6659</v>
-      </c>
-      <c r="K13" s="7">
-        <f t="shared" si="1"/>
-        <v>6545</v>
-      </c>
-      <c r="L13" s="7">
-        <f t="shared" si="1"/>
-        <v>5198</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" si="1"/>
-        <v>5148</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -15908,14 +14330,31 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
+      <c r="X13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="0"/>
+        <v>9823</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>1681</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>4258</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>478</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>934</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>2017</v>
+      </c>
+      <c r="AE13" s="17">
+        <v>455</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -15941,14 +14380,31 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
+      <c r="X14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="19">
+        <f t="shared" si="0"/>
+        <v>9320</v>
+      </c>
+      <c r="Z14" s="20">
+        <v>1770</v>
+      </c>
+      <c r="AA14" s="20">
+        <v>4969</v>
+      </c>
+      <c r="AB14" s="20">
+        <v>385</v>
+      </c>
+      <c r="AC14" s="20">
+        <v>307</v>
+      </c>
+      <c r="AD14" s="21">
+        <v>420</v>
+      </c>
+      <c r="AE14" s="22">
+        <v>1469</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -15974,14 +14430,32 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
+      <c r="X15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="0"/>
+        <v>5858</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>2822</v>
+      </c>
+      <c r="AA15" s="15">
+        <v>1749</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>204</v>
+      </c>
+      <c r="AC15" s="15">
+        <f>818+265</f>
+        <v>1083</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -16007,14 +14481,31 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
+      <c r="X16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y16" s="19">
+        <f t="shared" si="0"/>
+        <v>3485.29</v>
+      </c>
+      <c r="Z16" s="20">
+        <v>1186.3399999999999</v>
+      </c>
+      <c r="AA16" s="20">
+        <v>918.21</v>
+      </c>
+      <c r="AB16" s="20">
+        <v>663</v>
+      </c>
+      <c r="AC16" s="20">
+        <v>258.7</v>
+      </c>
+      <c r="AD16" s="21">
+        <v>459.04</v>
+      </c>
+      <c r="AE16" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -16040,14 +14531,34 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
+      <c r="X17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y17" s="14">
+        <f t="shared" si="0"/>
+        <v>353.70000000000005</v>
+      </c>
+      <c r="Z17" s="15">
+        <v>45</v>
+      </c>
+      <c r="AA17" s="15">
+        <f>108+51.2+32.24</f>
+        <v>191.44</v>
+      </c>
+      <c r="AB17" s="15">
+        <f>8.18+33</f>
+        <v>41.18</v>
+      </c>
+      <c r="AC17" s="15">
+        <f>25+18.84+32.24</f>
+        <v>76.080000000000013</v>
+      </c>
+      <c r="AD17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -16073,18 +14584,38 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
+      <c r="X18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="19">
+        <f t="shared" si="0"/>
+        <v>7542</v>
+      </c>
+      <c r="Z18" s="20">
+        <v>2015</v>
+      </c>
+      <c r="AA18" s="20">
+        <v>2425</v>
+      </c>
+      <c r="AB18" s="20">
+        <v>553</v>
+      </c>
+      <c r="AC18" s="20">
+        <v>594</v>
+      </c>
+      <c r="AD18" s="21">
+        <f>295+777</f>
+        <v>1072</v>
+      </c>
+      <c r="AE18" s="22">
+        <v>883</v>
+      </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -16106,30 +14637,72 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
+      <c r="X19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="14">
+        <f t="shared" si="0"/>
+        <v>7412</v>
+      </c>
+      <c r="Z19" s="15">
+        <v>1985</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>2347</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>553</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>594</v>
+      </c>
+      <c r="AD19" s="16">
+        <f>289+777</f>
+        <v>1066</v>
+      </c>
+      <c r="AE19" s="17">
+        <v>867</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -16139,30 +14712,76 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
+      <c r="X20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="19">
+        <f t="shared" si="0"/>
+        <v>5970</v>
+      </c>
+      <c r="Z20" s="20">
+        <v>1877</v>
+      </c>
+      <c r="AA20" s="20">
+        <v>1125</v>
+      </c>
+      <c r="AB20" s="20">
+        <v>553</v>
+      </c>
+      <c r="AC20" s="20">
+        <v>594</v>
+      </c>
+      <c r="AD20" s="21">
+        <f>272+777</f>
+        <v>1049</v>
+      </c>
+      <c r="AE20" s="22">
+        <v>772</v>
+      </c>
     </row>
     <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2">
+        <v>460</v>
+      </c>
+      <c r="D21" s="2">
+        <f>404.8+28.8+99.3</f>
+        <v>532.9</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1681</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1770</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2822</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1186.3399999999999</v>
+      </c>
+      <c r="I21" s="3">
+        <v>45</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2015</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1985</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1877</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1860</v>
+      </c>
+      <c r="N21" s="5">
+        <f>SUM(C21:M21)/SUM($C$27:$M$27)</f>
+        <v>0.2756065027505068</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -16172,32 +14791,76 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="11"/>
+      <c r="X21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="14">
+        <f t="shared" si="0"/>
+        <v>5912</v>
+      </c>
+      <c r="Z21" s="15">
+        <v>1860</v>
+      </c>
+      <c r="AA21" s="15">
+        <v>1095</v>
+      </c>
+      <c r="AB21" s="15">
+        <v>553</v>
+      </c>
+      <c r="AC21" s="15">
+        <v>594</v>
+      </c>
+      <c r="AD21" s="16">
+        <f>269+777</f>
+        <v>1046</v>
+      </c>
+      <c r="AE21" s="17">
+        <v>764</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <v>495</v>
+      </c>
+      <c r="D22" s="2">
+        <v>252.5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4258</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4969</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1749</v>
+      </c>
+      <c r="H22" s="2">
+        <v>918.21</v>
+      </c>
+      <c r="I22" s="3">
+        <f>108+51.2+32.24</f>
+        <v>191.44</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2425</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2347</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1125</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1095</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" ref="N22:N26" si="1">SUM(C22:M22)/SUM($C$27:$M$27)</f>
+        <v>0.33656889746635571</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -16207,46 +14870,81 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA22" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE22" s="17" t="s">
-        <v>31</v>
+      <c r="X22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="24">
+        <f t="shared" ref="Y22:AE22" si="2">SUM(Y11:Y21)/SUM($Y$11:$Y$21)</f>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="25">
+        <f t="shared" si="2"/>
+        <v>0.2756065027505068</v>
+      </c>
+      <c r="AA22" s="25">
+        <f t="shared" si="2"/>
+        <v>0.33656889746635571</v>
+      </c>
+      <c r="AB22" s="25">
+        <f t="shared" si="2"/>
+        <v>7.5969434172969447E-2</v>
+      </c>
+      <c r="AC22" s="25">
+        <f t="shared" si="2"/>
+        <v>8.8006031540638602E-2</v>
+      </c>
+      <c r="AD22" s="26">
+        <f t="shared" si="2"/>
+        <v>0.12981427818868393</v>
+      </c>
+      <c r="AE22" s="27">
+        <f t="shared" si="2"/>
+        <v>9.4034855880845494E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
+        <v>366</v>
+      </c>
+      <c r="D23" s="2">
+        <v>125.7</v>
+      </c>
+      <c r="E23" s="2">
+        <v>478</v>
+      </c>
+      <c r="F23" s="2">
+        <v>385</v>
+      </c>
+      <c r="G23" s="2">
+        <v>204</v>
+      </c>
+      <c r="H23" s="2">
+        <v>663</v>
+      </c>
+      <c r="I23" s="2">
+        <f>8.18+33</f>
+        <v>41.18</v>
+      </c>
+      <c r="J23" s="2">
+        <v>553</v>
+      </c>
+      <c r="K23" s="2">
+        <v>553</v>
+      </c>
+      <c r="L23" s="2">
+        <v>553</v>
+      </c>
+      <c r="M23" s="2">
+        <v>553</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="1"/>
+        <v>7.5969434172969447E-2</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -16256,48 +14954,59 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="19">
-        <f t="shared" ref="Y23:Y33" si="2">SUM(Z23:AE23)</f>
-        <v>2027</v>
-      </c>
-      <c r="Z23" s="20">
-        <v>460</v>
-      </c>
-      <c r="AA23" s="20">
-        <v>495</v>
-      </c>
-      <c r="AB23" s="20">
-        <v>366</v>
-      </c>
-      <c r="AC23" s="20">
-        <v>29</v>
-      </c>
-      <c r="AD23" s="21">
-        <f>210+194</f>
-        <v>404</v>
-      </c>
-      <c r="AE23" s="22">
-        <v>273</v>
-      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2">
+        <v>120.1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>934</v>
+      </c>
+      <c r="F24" s="2">
+        <v>307</v>
+      </c>
+      <c r="G24" s="2">
+        <f>818+265</f>
+        <v>1083</v>
+      </c>
+      <c r="H24" s="2">
+        <v>258.7</v>
+      </c>
+      <c r="I24" s="3">
+        <f>25+18.84+32.24</f>
+        <v>76.080000000000013</v>
+      </c>
+      <c r="J24" s="2">
+        <v>594</v>
+      </c>
+      <c r="K24" s="2">
+        <v>594</v>
+      </c>
+      <c r="L24" s="3">
+        <v>594</v>
+      </c>
+      <c r="M24" s="2">
+        <v>594</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="1"/>
+        <v>8.8006031540638602E-2</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -16307,48 +15016,62 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y24" s="24">
-        <f t="shared" si="2"/>
-        <v>1200.7</v>
-      </c>
-      <c r="Z24" s="25">
-        <f>404.8+28.8+99.3</f>
-        <v>532.9</v>
-      </c>
-      <c r="AA24" s="25">
-        <v>252.5</v>
-      </c>
-      <c r="AB24" s="25">
-        <v>125.7</v>
-      </c>
-      <c r="AC24" s="25">
-        <v>120.1</v>
-      </c>
-      <c r="AD24" s="26">
-        <v>113.5</v>
-      </c>
-      <c r="AE24" s="27">
-        <v>56</v>
-      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2">
+        <f>210+194</f>
+        <v>404</v>
+      </c>
+      <c r="D25" s="3">
+        <v>113.5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F25" s="2">
+        <v>420</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>459.04</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <f>295+777</f>
+        <v>1072</v>
+      </c>
+      <c r="K25" s="3">
+        <f>289+777</f>
+        <v>1066</v>
+      </c>
+      <c r="L25" s="2">
+        <f>272+777</f>
+        <v>1049</v>
+      </c>
+      <c r="M25" s="2">
+        <f>269+777</f>
+        <v>1046</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="1"/>
+        <v>0.12981427818868393</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -16358,47 +15081,57 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y25" s="19">
-        <f t="shared" si="2"/>
-        <v>9823</v>
-      </c>
-      <c r="Z25" s="20">
-        <v>1681</v>
-      </c>
-      <c r="AA25" s="20">
-        <v>4258</v>
-      </c>
-      <c r="AB25" s="20">
-        <v>478</v>
-      </c>
-      <c r="AC25" s="20">
-        <v>934</v>
-      </c>
-      <c r="AD25" s="21">
-        <v>2017</v>
-      </c>
-      <c r="AE25" s="22">
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3">
+        <v>273</v>
+      </c>
+      <c r="D26" s="2">
+        <v>56</v>
+      </c>
+      <c r="E26" s="2">
         <v>455</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="F26" s="3">
+        <v>1469</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>883</v>
+      </c>
+      <c r="K26" s="3">
+        <v>867</v>
+      </c>
+      <c r="L26" s="2">
+        <v>772</v>
+      </c>
+      <c r="M26" s="2">
+        <v>764</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="1"/>
+        <v>9.4034855880845494E-2</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -16408,47 +15141,65 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y26" s="24">
-        <f t="shared" si="2"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="28">
+        <f>SUM(C21:C26)</f>
+        <v>2027</v>
+      </c>
+      <c r="D27" s="28">
+        <f t="shared" ref="D27:M27" si="3">SUM(D21:D26)</f>
+        <v>1200.7</v>
+      </c>
+      <c r="E27" s="28">
+        <f t="shared" si="3"/>
+        <v>9823</v>
+      </c>
+      <c r="F27" s="28">
+        <f t="shared" si="3"/>
         <v>9320</v>
       </c>
-      <c r="Z26" s="25">
-        <v>1770</v>
-      </c>
-      <c r="AA26" s="25">
-        <v>4969</v>
-      </c>
-      <c r="AB26" s="25">
-        <v>385</v>
-      </c>
-      <c r="AC26" s="25">
-        <v>307</v>
-      </c>
-      <c r="AD26" s="26">
-        <v>420</v>
-      </c>
-      <c r="AE26" s="27">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="G27" s="28">
+        <f t="shared" si="3"/>
+        <v>5858</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" si="3"/>
+        <v>3485.29</v>
+      </c>
+      <c r="I27" s="28">
+        <f t="shared" si="3"/>
+        <v>353.70000000000005</v>
+      </c>
+      <c r="J27" s="28">
+        <f t="shared" si="3"/>
+        <v>7542</v>
+      </c>
+      <c r="K27" s="28">
+        <f t="shared" si="3"/>
+        <v>7412</v>
+      </c>
+      <c r="L27" s="28">
+        <f t="shared" si="3"/>
+        <v>5970</v>
+      </c>
+      <c r="M27" s="28">
+        <f t="shared" si="3"/>
+        <v>5912</v>
+      </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -16458,32 +15209,14 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y27" s="19">
-        <f t="shared" si="2"/>
-        <v>5858</v>
-      </c>
-      <c r="Z27" s="20">
-        <v>2822</v>
-      </c>
-      <c r="AA27" s="20">
-        <v>1749</v>
-      </c>
-      <c r="AB27" s="20">
-        <v>204</v>
-      </c>
-      <c r="AC27" s="20">
-        <f>818+265</f>
-        <v>1083</v>
-      </c>
-      <c r="AD27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="22">
-        <v>0</v>
-      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -16494,11 +15227,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -16509,31 +15242,14 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y28" s="24">
-        <f t="shared" si="2"/>
-        <v>3485.29</v>
-      </c>
-      <c r="Z28" s="25">
-        <v>1186.3399999999999</v>
-      </c>
-      <c r="AA28" s="25">
-        <v>918.21</v>
-      </c>
-      <c r="AB28" s="25">
-        <v>663</v>
-      </c>
-      <c r="AC28" s="25">
-        <v>258.7</v>
-      </c>
-      <c r="AD28" s="26">
-        <v>459.04</v>
-      </c>
-      <c r="AE28" s="27">
-        <v>0</v>
-      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -16544,7 +15260,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -16559,34 +15275,14 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y29" s="19">
-        <f t="shared" si="2"/>
-        <v>353.70000000000005</v>
-      </c>
-      <c r="Z29" s="20">
-        <v>45</v>
-      </c>
-      <c r="AA29" s="20">
-        <f>108+51.2+32.24</f>
-        <v>191.44</v>
-      </c>
-      <c r="AB29" s="20">
-        <f>8.18+33</f>
-        <v>41.18</v>
-      </c>
-      <c r="AC29" s="20">
-        <f>25+18.84+32.24</f>
-        <v>76.080000000000013</v>
-      </c>
-      <c r="AD29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="22">
-        <v>0</v>
-      </c>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -16612,38 +15308,18 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y30" s="24">
-        <f t="shared" si="2"/>
-        <v>7542</v>
-      </c>
-      <c r="Z30" s="25">
-        <v>2015</v>
-      </c>
-      <c r="AA30" s="25">
-        <v>2425</v>
-      </c>
-      <c r="AB30" s="25">
-        <v>553</v>
-      </c>
-      <c r="AC30" s="25">
-        <v>594</v>
-      </c>
-      <c r="AD30" s="26">
-        <f>295+777</f>
-        <v>1072</v>
-      </c>
-      <c r="AE30" s="27">
-        <v>883</v>
-      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -16665,72 +15341,30 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y31" s="19">
-        <f t="shared" si="2"/>
-        <v>7412</v>
-      </c>
-      <c r="Z31" s="20">
-        <v>1985</v>
-      </c>
-      <c r="AA31" s="20">
-        <v>2347</v>
-      </c>
-      <c r="AB31" s="20">
-        <v>553</v>
-      </c>
-      <c r="AC31" s="20">
-        <v>594</v>
-      </c>
-      <c r="AD31" s="21">
-        <f>289+777</f>
-        <v>1066</v>
-      </c>
-      <c r="AE31" s="22">
-        <v>867</v>
-      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -16740,76 +15374,30 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y32" s="24">
-        <f t="shared" si="2"/>
-        <v>5970</v>
-      </c>
-      <c r="Z32" s="25">
-        <v>1877</v>
-      </c>
-      <c r="AA32" s="25">
-        <v>1125</v>
-      </c>
-      <c r="AB32" s="25">
-        <v>553</v>
-      </c>
-      <c r="AC32" s="25">
-        <v>594</v>
-      </c>
-      <c r="AD32" s="26">
-        <f>272+777</f>
-        <v>1049</v>
-      </c>
-      <c r="AE32" s="27">
-        <v>772</v>
-      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
     </row>
-    <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="2">
-        <v>460</v>
-      </c>
-      <c r="D33" s="2">
-        <f>404.8+28.8+99.3</f>
-        <v>532.9</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1681</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1770</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2822</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1186.3399999999999</v>
-      </c>
-      <c r="I33" s="3">
-        <v>45</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2015</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1985</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1877</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1860</v>
-      </c>
-      <c r="N33" s="5">
-        <f>SUM(C33:M33)/SUM($C$39:$M$39)</f>
-        <v>0.2756065027505068</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -16819,76 +15407,30 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y33" s="19">
-        <f t="shared" si="2"/>
-        <v>5912</v>
-      </c>
-      <c r="Z33" s="20">
-        <v>1860</v>
-      </c>
-      <c r="AA33" s="20">
-        <v>1095</v>
-      </c>
-      <c r="AB33" s="20">
-        <v>553</v>
-      </c>
-      <c r="AC33" s="20">
-        <v>594</v>
-      </c>
-      <c r="AD33" s="21">
-        <f>269+777</f>
-        <v>1046</v>
-      </c>
-      <c r="AE33" s="22">
-        <v>764</v>
-      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
     </row>
-    <row r="34" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="2">
-        <v>495</v>
-      </c>
-      <c r="D34" s="2">
-        <v>252.5</v>
-      </c>
-      <c r="E34" s="2">
-        <v>4258</v>
-      </c>
-      <c r="F34" s="3">
-        <v>4969</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1749</v>
-      </c>
-      <c r="H34" s="2">
-        <v>918.21</v>
-      </c>
-      <c r="I34" s="3">
-        <f>108+51.2+32.24</f>
-        <v>191.44</v>
-      </c>
-      <c r="J34" s="3">
-        <v>2425</v>
-      </c>
-      <c r="K34" s="3">
-        <v>2347</v>
-      </c>
-      <c r="L34" s="3">
-        <v>1125</v>
-      </c>
-      <c r="M34" s="3">
-        <v>1095</v>
-      </c>
-      <c r="N34" s="5">
-        <f t="shared" ref="N34:N38" si="3">SUM(C34:M34)/SUM($C$39:$M$39)</f>
-        <v>0.33656889746635571</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -16898,81 +15440,30 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y34" s="29">
-        <f t="shared" ref="Y34:AE34" si="4">SUM(Y23:Y33)/SUM($Y$23:$Y$33)</f>
-        <v>1</v>
-      </c>
-      <c r="Z34" s="30">
-        <f t="shared" si="4"/>
-        <v>0.2756065027505068</v>
-      </c>
-      <c r="AA34" s="30">
-        <f t="shared" si="4"/>
-        <v>0.33656889746635571</v>
-      </c>
-      <c r="AB34" s="30">
-        <f t="shared" si="4"/>
-        <v>7.5969434172969447E-2</v>
-      </c>
-      <c r="AC34" s="30">
-        <f t="shared" si="4"/>
-        <v>8.8006031540638602E-2</v>
-      </c>
-      <c r="AD34" s="31">
-        <f t="shared" si="4"/>
-        <v>0.12981427818868393</v>
-      </c>
-      <c r="AE34" s="32">
-        <f t="shared" si="4"/>
-        <v>9.4034855880845494E-2</v>
-      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="2">
-        <v>366</v>
-      </c>
-      <c r="D35" s="2">
-        <v>125.7</v>
-      </c>
-      <c r="E35" s="2">
-        <v>478</v>
-      </c>
-      <c r="F35" s="2">
-        <v>385</v>
-      </c>
-      <c r="G35" s="2">
-        <v>204</v>
-      </c>
-      <c r="H35" s="2">
-        <v>663</v>
-      </c>
-      <c r="I35" s="2">
-        <f>8.18+33</f>
-        <v>41.18</v>
-      </c>
-      <c r="J35" s="2">
-        <v>553</v>
-      </c>
-      <c r="K35" s="2">
-        <v>553</v>
-      </c>
-      <c r="L35" s="2">
-        <v>553</v>
-      </c>
-      <c r="M35" s="2">
-        <v>553</v>
-      </c>
-      <c r="N35" s="5">
-        <f t="shared" si="3"/>
-        <v>7.5969434172969447E-2</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -16993,48 +15484,19 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="3">
-        <v>29</v>
-      </c>
-      <c r="D36" s="2">
-        <v>120.1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>934</v>
-      </c>
-      <c r="F36" s="2">
-        <v>307</v>
-      </c>
-      <c r="G36" s="2">
-        <f>818+265</f>
-        <v>1083</v>
-      </c>
-      <c r="H36" s="2">
-        <v>258.7</v>
-      </c>
-      <c r="I36" s="3">
-        <f>25+18.84+32.24</f>
-        <v>76.080000000000013</v>
-      </c>
-      <c r="J36" s="2">
-        <v>594</v>
-      </c>
-      <c r="K36" s="2">
-        <v>594</v>
-      </c>
-      <c r="L36" s="3">
-        <v>594</v>
-      </c>
-      <c r="M36" s="2">
-        <v>594</v>
-      </c>
-      <c r="N36" s="5">
-        <f t="shared" si="3"/>
-        <v>8.8006031540638602E-2</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -17055,51 +15517,19 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="2">
-        <f>210+194</f>
-        <v>404</v>
-      </c>
-      <c r="D37" s="3">
-        <v>113.5</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2017</v>
-      </c>
-      <c r="F37" s="2">
-        <v>420</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>459.04</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <f>295+777</f>
-        <v>1072</v>
-      </c>
-      <c r="K37" s="3">
-        <f>289+777</f>
-        <v>1066</v>
-      </c>
-      <c r="L37" s="2">
-        <f>272+777</f>
-        <v>1049</v>
-      </c>
-      <c r="M37" s="2">
-        <f>269+777</f>
-        <v>1046</v>
-      </c>
-      <c r="N37" s="5">
-        <f t="shared" si="3"/>
-        <v>0.12981427818868393</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -17118,48 +15548,21 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
     </row>
-    <row r="38" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="3">
-        <v>273</v>
-      </c>
-      <c r="D38" s="2">
-        <v>56</v>
-      </c>
-      <c r="E38" s="2">
-        <v>455</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1469</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <v>883</v>
-      </c>
-      <c r="K38" s="3">
-        <v>867</v>
-      </c>
-      <c r="L38" s="2">
-        <v>772</v>
-      </c>
-      <c r="M38" s="2">
-        <v>764</v>
-      </c>
-      <c r="N38" s="5">
-        <f t="shared" si="3"/>
-        <v>9.4034855880845494E-2</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -17178,56 +15581,21 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="33">
-        <f>SUM(C33:C38)</f>
-        <v>2027</v>
-      </c>
-      <c r="D39" s="33">
-        <f t="shared" ref="D39:M39" si="5">SUM(D33:D38)</f>
-        <v>1200.7</v>
-      </c>
-      <c r="E39" s="33">
-        <f t="shared" si="5"/>
-        <v>9823</v>
-      </c>
-      <c r="F39" s="33">
-        <f t="shared" si="5"/>
-        <v>9320</v>
-      </c>
-      <c r="G39" s="33">
-        <f t="shared" si="5"/>
-        <v>5858</v>
-      </c>
-      <c r="H39" s="33">
-        <f t="shared" si="5"/>
-        <v>3485.29</v>
-      </c>
-      <c r="I39" s="33">
-        <f t="shared" si="5"/>
-        <v>353.70000000000005</v>
-      </c>
-      <c r="J39" s="33">
-        <f t="shared" si="5"/>
-        <v>7542</v>
-      </c>
-      <c r="K39" s="33">
-        <f t="shared" si="5"/>
-        <v>7412</v>
-      </c>
-      <c r="L39" s="33">
-        <f t="shared" si="5"/>
-        <v>5970</v>
-      </c>
-      <c r="M39" s="33">
-        <f t="shared" si="5"/>
-        <v>5912</v>
-      </c>
-      <c r="N39" s="4"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -17255,11 +15623,11 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -17288,7 +15656,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="4"/>
+      <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -17908,7 +16276,9 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -17941,7 +16311,9 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -18304,9 +16676,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -18339,9 +16709,7 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -18572,7 +16940,9 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -18968,9 +17338,7 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -20024,405 +18392,9 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
-      <c r="S124" s="1"/>
-      <c r="T124" s="1"/>
-      <c r="U124" s="1"/>
-      <c r="V124" s="1"/>
-      <c r="W124" s="1"/>
-      <c r="X124" s="1"/>
-      <c r="Y124" s="1"/>
-      <c r="Z124" s="1"/>
-      <c r="AA124" s="1"/>
-      <c r="AB124" s="1"/>
-      <c r="AC124" s="1"/>
-      <c r="AD124" s="1"/>
-      <c r="AE124" s="1"/>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-      <c r="S125" s="1"/>
-      <c r="T125" s="1"/>
-      <c r="U125" s="1"/>
-      <c r="V125" s="1"/>
-      <c r="W125" s="1"/>
-      <c r="X125" s="1"/>
-      <c r="Y125" s="1"/>
-      <c r="Z125" s="1"/>
-      <c r="AA125" s="1"/>
-      <c r="AB125" s="1"/>
-      <c r="AC125" s="1"/>
-      <c r="AD125" s="1"/>
-      <c r="AE125" s="1"/>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-      <c r="S126" s="1"/>
-      <c r="T126" s="1"/>
-      <c r="U126" s="1"/>
-      <c r="V126" s="1"/>
-      <c r="W126" s="1"/>
-      <c r="X126" s="1"/>
-      <c r="Y126" s="1"/>
-      <c r="Z126" s="1"/>
-      <c r="AA126" s="1"/>
-      <c r="AB126" s="1"/>
-      <c r="AC126" s="1"/>
-      <c r="AD126" s="1"/>
-      <c r="AE126" s="1"/>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
-      <c r="R127" s="1"/>
-      <c r="S127" s="1"/>
-      <c r="T127" s="1"/>
-      <c r="U127" s="1"/>
-      <c r="V127" s="1"/>
-      <c r="W127" s="1"/>
-      <c r="X127" s="1"/>
-      <c r="Y127" s="1"/>
-      <c r="Z127" s="1"/>
-      <c r="AA127" s="1"/>
-      <c r="AB127" s="1"/>
-      <c r="AC127" s="1"/>
-      <c r="AD127" s="1"/>
-      <c r="AE127" s="1"/>
-    </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
-      <c r="R128" s="1"/>
-      <c r="S128" s="1"/>
-      <c r="T128" s="1"/>
-      <c r="U128" s="1"/>
-      <c r="V128" s="1"/>
-      <c r="W128" s="1"/>
-      <c r="X128" s="1"/>
-      <c r="Y128" s="1"/>
-      <c r="Z128" s="1"/>
-      <c r="AA128" s="1"/>
-      <c r="AB128" s="1"/>
-      <c r="AC128" s="1"/>
-      <c r="AD128" s="1"/>
-      <c r="AE128" s="1"/>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
-      <c r="R129" s="1"/>
-      <c r="S129" s="1"/>
-      <c r="T129" s="1"/>
-      <c r="U129" s="1"/>
-      <c r="V129" s="1"/>
-      <c r="W129" s="1"/>
-      <c r="X129" s="1"/>
-      <c r="Y129" s="1"/>
-      <c r="Z129" s="1"/>
-      <c r="AA129" s="1"/>
-      <c r="AB129" s="1"/>
-      <c r="AC129" s="1"/>
-      <c r="AD129" s="1"/>
-      <c r="AE129" s="1"/>
-    </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
-      <c r="R130" s="1"/>
-      <c r="S130" s="1"/>
-      <c r="T130" s="1"/>
-      <c r="U130" s="1"/>
-      <c r="V130" s="1"/>
-      <c r="W130" s="1"/>
-      <c r="X130" s="1"/>
-      <c r="Y130" s="1"/>
-      <c r="Z130" s="1"/>
-      <c r="AA130" s="1"/>
-      <c r="AB130" s="1"/>
-      <c r="AC130" s="1"/>
-      <c r="AD130" s="1"/>
-      <c r="AE130" s="1"/>
-    </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
-      <c r="R131" s="1"/>
-      <c r="S131" s="1"/>
-      <c r="T131" s="1"/>
-      <c r="U131" s="1"/>
-      <c r="V131" s="1"/>
-      <c r="W131" s="1"/>
-      <c r="X131" s="1"/>
-      <c r="Y131" s="1"/>
-      <c r="Z131" s="1"/>
-      <c r="AA131" s="1"/>
-      <c r="AB131" s="1"/>
-      <c r="AC131" s="1"/>
-      <c r="AD131" s="1"/>
-      <c r="AE131" s="1"/>
-    </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-      <c r="S132" s="1"/>
-      <c r="T132" s="1"/>
-      <c r="U132" s="1"/>
-      <c r="V132" s="1"/>
-      <c r="W132" s="1"/>
-      <c r="X132" s="1"/>
-      <c r="Y132" s="1"/>
-      <c r="Z132" s="1"/>
-      <c r="AA132" s="1"/>
-      <c r="AB132" s="1"/>
-      <c r="AC132" s="1"/>
-      <c r="AD132" s="1"/>
-      <c r="AE132" s="1"/>
-    </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
-      <c r="T133" s="1"/>
-      <c r="U133" s="1"/>
-      <c r="V133" s="1"/>
-      <c r="W133" s="1"/>
-      <c r="X133" s="1"/>
-      <c r="Y133" s="1"/>
-      <c r="Z133" s="1"/>
-      <c r="AA133" s="1"/>
-      <c r="AB133" s="1"/>
-      <c r="AC133" s="1"/>
-      <c r="AD133" s="1"/>
-      <c r="AE133" s="1"/>
-    </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
-      <c r="S134" s="1"/>
-      <c r="T134" s="1"/>
-      <c r="U134" s="1"/>
-      <c r="V134" s="1"/>
-      <c r="W134" s="1"/>
-      <c r="X134" s="1"/>
-      <c r="Y134" s="1"/>
-      <c r="Z134" s="1"/>
-      <c r="AA134" s="1"/>
-      <c r="AB134" s="1"/>
-      <c r="AC134" s="1"/>
-      <c r="AD134" s="1"/>
-      <c r="AE134" s="1"/>
-    </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
-      <c r="S135" s="1"/>
-      <c r="T135" s="1"/>
-      <c r="U135" s="1"/>
-      <c r="V135" s="1"/>
-      <c r="W135" s="1"/>
-      <c r="X135" s="1"/>
-      <c r="Y135" s="1"/>
-      <c r="Z135" s="1"/>
-      <c r="AA135" s="1"/>
-      <c r="AB135" s="1"/>
-      <c r="AC135" s="1"/>
-      <c r="AD135" s="1"/>
-      <c r="AE135" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="X21:AE21"/>
+    <mergeCell ref="X9:AE9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Lander_subsystems_DB23.xlsx
+++ b/Lander_subsystems_DB23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conall De Paor\Desktop\Supaero\Research Project\Sizing-Tool\ORLA_Lander_Mission_Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156889D0-BC0B-4E36-A10D-E8C121EC182C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA07116-2A07-4180-82C9-0189957CD418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{980FDF1D-6D6A-4B67-B4CD-9FBE1C3FED17}"/>
+    <workbookView minimized="1" xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{980FDF1D-6D6A-4B67-B4CD-9FBE1C3FED17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10665,73 +10665,6 @@
           <cell r="B4" t="str">
             <v>Structure</v>
           </cell>
-          <cell r="N4">
-            <v>0.37014532844659487</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Propulsion</v>
-          </cell>
-          <cell r="N5">
-            <v>0.34123750733279873</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Power</v>
-          </cell>
-          <cell r="N6">
-            <v>8.7934384233271795E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Environment</v>
-          </cell>
-          <cell r="N7">
-            <v>7.4395391683574716E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Avionics</v>
-          </cell>
-          <cell r="N8">
-            <v>7.147303593116229E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>Protection</v>
-          </cell>
-          <cell r="N9">
-            <v>3.6121321715668599E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>Control</v>
-          </cell>
-          <cell r="N10">
-            <v>1.869303065692907E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Growth</v>
-          </cell>
-          <cell r="N11">
-            <v>0.16093587142352273</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>Other</v>
-          </cell>
-          <cell r="N12">
-            <v>0.11237345876679818</v>
-          </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
